--- a/back-end/test/demo.xlsx
+++ b/back-end/test/demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kieuloc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\VueJS\back-end\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8D05C4-DA15-D745-8C49-FE507AF097C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{3C880EF0-93FD-5049-BDAD-E429D65CC0DD}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Orange</t>
   </si>
@@ -79,12 +79,60 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>một</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>bốn</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>stt</t>
+  </si>
+  <si>
+    <t>màu</t>
+  </si>
+  <si>
+    <t>giá</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>táo</t>
+  </si>
+  <si>
+    <t>chuối</t>
+  </si>
+  <si>
+    <t>dừa</t>
+  </si>
+  <si>
+    <t>đỏ</t>
+  </si>
+  <si>
+    <t>vàng</t>
+  </si>
+  <si>
+    <t>xanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,19 +483,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0B48F-10EE-BE47-85D5-6327FECD6756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -461,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,7 +565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,4 +583,106 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>